--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Flujo Alterno 2</t>
   </si>
   <si>
-    <t>Mensaje de error</t>
-  </si>
-  <si>
     <t>Registro exitoso y mensaje de información mostrado</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t>SC1 - Mantenimiento de Proceso satisfactorio</t>
   </si>
   <si>
-    <t>SC3 - No muestra datos</t>
-  </si>
-  <si>
-    <t>SC4 - Cancelar Confirmación</t>
-  </si>
-  <si>
-    <t>SC2 - Busqueda de Proceso satisfactorio</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC1 </t>
   </si>
   <si>
@@ -93,21 +81,6 @@
     <t>Objetivo</t>
   </si>
   <si>
-    <t>Tipo de proceso</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>MTD</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>Impacto</t>
-  </si>
-  <si>
     <t>Proceso de atención al cliente</t>
   </si>
   <si>
@@ -145,13 +118,25 @@
   </si>
   <si>
     <t>Fecha Verif hasta</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Verificación de control SI satisfactorio</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +146,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,19 +165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,21 +211,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -249,16 +235,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,7 +526,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -557,62 +538,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -620,52 +602,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.28515625" style="8" customWidth="1"/>
     <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="24">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>42</v>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -673,66 +655,156 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -742,14 +814,15 @@
     <col min="3" max="3" width="36.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" ht="24">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -757,132 +830,148 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -176,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,11 +199,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +265,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -803,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -871,13 +917,13 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2"/>
@@ -899,15 +945,9 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -925,15 +965,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -951,15 +985,9 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -971,6 +999,11 @@
       <c r="N5" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Flujo Alterno 2</t>
   </si>
   <si>
-    <t>Registro exitoso y mensaje de información mostrado</t>
-  </si>
-  <si>
     <t>Set de valores</t>
   </si>
   <si>
@@ -66,27 +63,6 @@
     <t xml:space="preserve">TC1 </t>
   </si>
   <si>
-    <t xml:space="preserve">TC2 </t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Nombre de Proceso</t>
-  </si>
-  <si>
-    <t>Objetivo</t>
-  </si>
-  <si>
-    <t>Proceso de atención al cliente</t>
-  </si>
-  <si>
-    <t>Fidelizar y brindar buena atención a los clientes</t>
-  </si>
-  <si>
     <t>SC1 - Mantenimiento de verificación de los cumplimientos de un control de SI satisfactorio</t>
   </si>
   <si>
@@ -126,17 +102,101 @@
     <t>Verificación de control SI satisfactorio</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Gestión de Comunicaciones y operaciones</t>
+  </si>
+  <si>
+    <t>Procedimiento de operaci</t>
+  </si>
+  <si>
+    <t>Zela Bueno, Carlos</t>
+  </si>
+  <si>
+    <t>Mensaje "No se encontraron resultados"</t>
+  </si>
+  <si>
+    <t>Cod. Control</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Tipo Verificacion</t>
+  </si>
+  <si>
+    <t>Resultado dado</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
+  <si>
+    <t>Procedimiento de Operaciones documentado</t>
+  </si>
+  <si>
+    <t>Rutina</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Se grabó Verificación de controles SI satisfactoriamente</t>
+  </si>
+  <si>
+    <t>Separación de los Medios</t>
+  </si>
+  <si>
+    <t>Ayaucan Silva, Marco</t>
+  </si>
+  <si>
+    <t>Separación de los Medios de desarrollo y operación</t>
+  </si>
+  <si>
+    <t>Valores no editables</t>
+  </si>
+  <si>
+    <t>Valores N/A</t>
+  </si>
+  <si>
+    <t>Solicitud</t>
+  </si>
+  <si>
+    <t>No Cumplido</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Nombre Politica</t>
+  </si>
+  <si>
+    <t>Gestión de la comunicaciones y operaciones</t>
+  </si>
+  <si>
+    <t>Meza Carbajal, Carlos</t>
+  </si>
+  <si>
+    <t>Gestión de Cambio</t>
+  </si>
+  <si>
+    <t>Gestion de Cambio</t>
+  </si>
+  <si>
+    <t>Planificado</t>
+  </si>
+  <si>
+    <t>pruebita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +215,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +238,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +358,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -599,7 +731,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -611,7 +743,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -625,7 +757,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -648,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -660,186 +792,283 @@
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="8" customWidth="1"/>
     <col min="4" max="6" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="13.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24">
+    <row r="1" spans="1:18" ht="24">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -847,164 +1076,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C8" sqref="C8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="15" width="13.28515625" style="8" customWidth="1"/>
+    <col min="16" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="42.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24">
+    <row r="1" spans="1:19" ht="24">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>31</v>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:19" ht="36">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12">
+        <v>41311</v>
+      </c>
+      <c r="K2" s="12">
+        <v>41310</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="36">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="14">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="48">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="12">
+        <v>41275</v>
+      </c>
+      <c r="K4" s="12">
+        <v>41311</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="14">
+        <v>6</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="36">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="14">
+        <v>5</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="26.25" customHeight="1">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -99,9 +99,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>Verificación de control SI satisfactorio</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>pruebita</t>
+  </si>
+  <si>
+    <t>Búsqueda de datos satisfactoria</t>
   </si>
 </sst>
 </file>
@@ -217,12 +217,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="4"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,19 +243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,6 +344,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,27 +392,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,24 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -793,7 +787,7 @@
     <col min="3" max="3" width="16.42578125" style="8" customWidth="1"/>
     <col min="4" max="6" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="17" width="13.28515625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24">
@@ -803,60 +797,60 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -884,56 +878,56 @@
         <v>26</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
@@ -957,88 +951,88 @@
         <v>26</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>26</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1078,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D9"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1108,50 +1102,50 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>3</v>
@@ -1164,42 +1158,42 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
+      <c r="E2" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="7">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
+      <c r="G2" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="7">
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9">
+        <v>41311</v>
+      </c>
+      <c r="K2" s="9">
+        <v>41310</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="12">
-        <v>41311</v>
-      </c>
-      <c r="K2" s="12">
-        <v>41310</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="36">
@@ -1209,50 +1203,50 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>29</v>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>30</v>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H3" s="7">
         <v>3</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="14">
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="11">
         <v>4</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="48">
@@ -1262,54 +1256,54 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>29</v>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="7">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>43</v>
+      <c r="G4" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="9">
+        <v>41275</v>
+      </c>
+      <c r="K4" s="9">
+        <v>41311</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="12">
-        <v>41275</v>
-      </c>
-      <c r="K4" s="12">
-        <v>41311</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="14">
-        <v>6</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>44</v>
+      <c r="O4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>42</v>
+      <c r="S4" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="36">
@@ -1319,62 +1313,62 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>29</v>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>54</v>
+      <c r="G5" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="23" t="s">
+      <c r="I5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="14">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="11">
         <v>5</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>42</v>
+      <c r="S5" s="18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30">
-      <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="26.25" customHeight="1">
+      <c r="C9" s="21"/>
+      <c r="D9" s="20" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="26.25" customHeight="1">
-      <c r="C9" s="27"/>
-      <c r="D9" s="26" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>SC1 - Mantenimiento de Proceso satisfactorio</t>
   </si>
   <si>
-    <t xml:space="preserve">TC1 </t>
-  </si>
-  <si>
     <t>SC1 - Mantenimiento de verificación de los cumplimientos de un control de SI satisfactorio</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Búsqueda de datos satisfactoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1_SI_CUS002 </t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -798,49 +798,49 @@
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
@@ -848,214 +848,214 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="22" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1103,49 +1103,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>3</v>
@@ -1155,8 +1155,8 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+      <c r="B2" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>13</v>
@@ -1165,19 +1165,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7">
         <v>4</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="7">
         <v>3</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="9">
         <v>41311</v>
@@ -1193,87 +1193,83 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="36">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="23"/>
       <c r="C3" s="26"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7">
         <v>4</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7">
         <v>3</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="11">
         <v>4</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="48">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="23"/>
       <c r="C4" s="26"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7">
         <v>6</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="9">
         <v>41275</v>
@@ -1282,98 +1278,97 @@
         <v>41311</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="11">
         <v>6</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="S4" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="36">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="24"/>
       <c r="C5" s="27"/>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7">
         <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="11">
         <v>5</v>
       </c>
       <c r="N5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="S5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30">
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="26.25" customHeight="1">
       <c r="C9" s="21"/>
       <c r="D9" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="36">
+    <row r="3" spans="1:19" ht="60" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="48">
+    <row r="4" spans="1:19" ht="54.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="36">
+    <row r="5" spans="1:19" ht="53.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,11 +407,755 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="1552575"/>
+          <a:ext cx="0" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="1314450"/>
+          <a:ext cx="952500" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Inicio Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6423025" y="3863975"/>
+          <a:ext cx="952500" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Fin Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="1866900"/>
+          <a:ext cx="952500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" b="1"/>
+            <a:t>SI_CUS002</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000687</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="5648325" y="2080034"/>
+          <a:ext cx="467287" cy="796515"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53515</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>531337</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 Flecha curvada hacia la izquierda"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6282865" y="3000374"/>
+          <a:ext cx="477822" cy="515937"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832599" y="3149600"/>
+          <a:ext cx="1539875" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>479424</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="10 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="2406650"/>
+          <a:ext cx="1536699" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> alternativo 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="13 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6213475" y="3492501"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="14 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6213475" y="2844801"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1066801</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="15 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5842000" y="2901951"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="16 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5822950" y="1892301"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,6 +1229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -519,6 +1264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,14 +1440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -709,7 +1455,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -723,7 +1469,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -735,7 +1481,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -749,7 +1495,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -769,18 +1515,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
@@ -790,7 +1537,7 @@
     <col min="18" max="18" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24">
+    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>57</v>
       </c>
@@ -902,7 +1649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
@@ -954,7 +1701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
@@ -1006,7 +1753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="7" t="s">
@@ -1069,14 +1816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -1092,7 +1839,7 @@
     <col min="19" max="19" width="42.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24">
+    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="36">
+    <row r="2" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1">
+    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="54.75" customHeight="1">
+    <row r="4" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +2049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="53.25" customHeight="1">
+    <row r="5" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1353,13 +2100,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="26.25" customHeight="1">
+    <row r="9" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="21"/>
       <c r="D9" s="20" t="s">
         <v>45</v>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS002_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,11 +407,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -466,62 +461,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5019675</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1026" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5210175" y="1314450"/>
-          <a:ext cx="952500" cy="482600"/>
+          <a:off x="5019675" y="1314450"/>
+          <a:ext cx="1143000" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Inicio Caso de uso</a:t>
           </a:r>
         </a:p>
@@ -532,61 +523,57 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="3 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1027" name="3 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6423025" y="3863975"/>
-          <a:ext cx="952500" cy="482600"/>
+          <a:off x="6400800" y="4010025"/>
+          <a:ext cx="952500" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Fin Caso de uso</a:t>
           </a:r>
         </a:p>
@@ -602,58 +589,65 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="4 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1028" name="4 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="6448425" y="1866900"/>
-          <a:ext cx="952500" cy="254000"/>
+          <a:ext cx="2447925" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="1"/>
-            <a:t>SI_CUS002</a:t>
+            <a:rPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SI_CUS002_VERIFICAR_LOS_CONTROLES_DE_SEGURIDAD_DE_INFORMACION</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -706,12 +700,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -764,12 +753,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1155,7 +1139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1229,7 +1213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1264,7 +1247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1440,14 +1422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="76.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1455,7 +1437,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1451,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1463,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +1477,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1520,14 +1502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
@@ -1537,7 +1519,7 @@
     <col min="18" max="18" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="24">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="22" t="s">
         <v>57</v>
       </c>
@@ -1649,7 +1631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
@@ -1701,7 +1683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
@@ -1753,7 +1735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="7" t="s">
@@ -1816,14 +1798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -1839,7 +1821,7 @@
     <col min="19" max="19" width="42.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="24">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1943,7 +1925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="60" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="54.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2049,7 +2031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="53.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2100,13 +2082,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30">
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="26.25" customHeight="1">
       <c r="C9" s="21"/>
       <c r="D9" s="20" t="s">
         <v>45</v>
